--- a/me/1.training_sass/06-function.xlsx
+++ b/me/1.training_sass/06-function.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF6448-7E73-48FF-AB4E-36C5E1A8C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0C9FD-AEBF-49C4-9CFE-D7828259ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create &amp; Use" sheetId="1" r:id="rId1"/>
+    <sheet name="Lib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>構成</t>
   </si>
@@ -94,6 +95,61 @@
   </si>
   <si>
     <t>→Add project(Input Folder)</t>
+  </si>
+  <si>
+    <t>02-lib</t>
+  </si>
+  <si>
+    <t>02-lib.scss</t>
+  </si>
+  <si>
+    <t>$str: "abc";</t>
+  </si>
+  <si>
+    <t>        background-color: red;</t>
+  </si>
+  <si>
+    <t>    } @else {</t>
+  </si>
+  <si>
+    <t>        background-color: blue;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t>    @if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str-length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($str) &gt;= 5) {</t>
+    </r>
+  </si>
+  <si>
+    <t>→Add project, Onput</t>
+  </si>
+  <si>
+    <t>02-lib.css</t>
+  </si>
+  <si>
+    <t>  background-color: blue; }</t>
   </si>
 </sst>
 </file>
@@ -560,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,4 +955,245 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8004842-D103-4E29-80C2-B315138FBE3C}">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>